--- a/02.Implementación de proyecto/Segundo Sprint/SGySHT_ReporteSprint2_v1.xlsx
+++ b/02.Implementación de proyecto/Segundo Sprint/SGySHT_ReporteSprint2_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoyAleZamora\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SoyAleZamora\Desktop\Proyecto_SGySHT\Proyecto_SGySHT\02.Implementación de proyecto\Segundo Sprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Seguimiento de proyectos'!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -700,39 +701,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.89989928891872917"/>
-        <name val="Century Gothic"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -816,6 +784,25 @@
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="2" tint="-0.89989928891872917"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1114,6 +1101,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="2" tint="-0.89996032593768116"/>
       </font>
       <fill>
@@ -1193,7 +1194,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>TInicio</a:t>
+              <a:t>Fecha</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Inicio</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
@@ -1772,12 +1781,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-MX"/>
-              <a:t>TInicio</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> estimado-real</a:t>
+              <a:t>Fecha de finalización estimado-real</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3625,53 +3630,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SeguimientoDeProyectos" displayName="SeguimientoDeProyectos" ref="B4:P17" totalsRowShown="0" headerRowDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="SeguimientoDeProyectos" displayName="SeguimientoDeProyectos" ref="B4:P17" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="B4:P17"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="Proyecto" dataDxfId="27" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Categoría" dataDxfId="26" dataCellStyle="Texto"/>
-    <tableColumn id="3" name="Asignado a" dataDxfId="25" dataCellStyle="Texto"/>
-    <tableColumn id="4" name="Estimado_x000a_Inicio" dataDxfId="24" dataCellStyle="Fecha"/>
-    <tableColumn id="5" name="Estimado _x000a_Finalización" dataDxfId="23" dataCellStyle="Fecha"/>
-    <tableColumn id="6" name="Trabajo estimado (en horas)" dataDxfId="22" dataCellStyle="Números"/>
-    <tableColumn id="7" name="Duración estimada (en días)" dataDxfId="21" dataCellStyle="Duración estimada">
+    <tableColumn id="1" name="Proyecto" dataDxfId="25" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Categoría" dataDxfId="24" dataCellStyle="Texto"/>
+    <tableColumn id="3" name="Asignado a" dataDxfId="23" dataCellStyle="Texto"/>
+    <tableColumn id="4" name="Estimado_x000a_Inicio" dataDxfId="22" dataCellStyle="Fecha"/>
+    <tableColumn id="5" name="Estimado _x000a_Finalización" dataDxfId="21" dataCellStyle="Fecha"/>
+    <tableColumn id="6" name="Trabajo estimado (en horas)" dataDxfId="20" dataCellStyle="Números"/>
+    <tableColumn id="7" name="Duración estimada (en días)" dataDxfId="19" dataCellStyle="Duración estimada">
       <calculatedColumnFormula>IF(COUNTA('Seguimiento de proyectos'!$E5,'Seguimiento de proyectos'!$F5)&lt;&gt;2,"",DAYS360('Seguimiento de proyectos'!$E5,'Seguimiento de proyectos'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Real _x000a_Inicio" dataDxfId="20" dataCellStyle="Inicio real"/>
-    <tableColumn id="9" name="Real_x000a_Finalización" dataDxfId="19" dataCellStyle="Fecha"/>
-    <tableColumn id="10" name="Icono de bandera para trabajo real superior o inferior (en horas)" dataDxfId="18" dataCellStyle="Marca">
+    <tableColumn id="8" name="Real _x000a_Inicio" dataDxfId="18" dataCellStyle="Inicio real"/>
+    <tableColumn id="9" name="Real_x000a_Finalización" dataDxfId="17" dataCellStyle="Fecha"/>
+    <tableColumn id="10" name="Icono de bandera para trabajo real superior o inferior (en horas)" dataDxfId="16" dataCellStyle="Marca">
       <calculatedColumnFormula>IFERROR(IF(SeguimientoDeProyectos[Trabajo real (en horas)]=0,"",IF(ABS((SeguimientoDeProyectos[[#This Row],[Trabajo real (en horas)]]-SeguimientoDeProyectos[[#This Row],[Trabajo estimado (en horas)]])/SeguimientoDeProyectos[[#This Row],[Trabajo estimado (en horas)]])&gt;PorcentajeMarca,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Trabajo real (en horas)" dataDxfId="17" dataCellStyle="Números"/>
-    <tableColumn id="12" name="Icono de bandera para duración real superior o inferior (en días)" dataDxfId="16" dataCellStyle="Marca">
+    <tableColumn id="11" name="Trabajo real (en horas)" dataDxfId="15" dataCellStyle="Números"/>
+    <tableColumn id="12" name="Icono de bandera para duración real superior o inferior (en días)" dataDxfId="14" dataCellStyle="Marca">
       <calculatedColumnFormula>IFERROR(IF(SeguimientoDeProyectos[Duración real (en días)]=0,"",IF(ABS((SeguimientoDeProyectos[[#This Row],[Duración real (en días)]]-SeguimientoDeProyectos[[#This Row],[Duración estimada (en días)]])/SeguimientoDeProyectos[[#This Row],[Duración estimada (en días)]])&gt;PorcentajeMarca,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Duración real (en días)" dataDxfId="15" dataCellStyle="Columna gris">
+    <tableColumn id="13" name="Duración real (en días)" dataDxfId="13" dataCellStyle="Columna gris">
       <calculatedColumnFormula>IF(COUNTA('Seguimiento de proyectos'!$I5,'Seguimiento de proyectos'!$J5)&lt;&gt;2,"",DAYS360('Seguimiento de proyectos'!$I5,'Seguimiento de proyectos'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="PESO" dataDxfId="14" dataCellStyle="Texto"/>
-    <tableColumn id="14" name="Completa" dataDxfId="0" dataCellStyle="Texto"/>
+    <tableColumn id="15" name="PESO" dataDxfId="12" dataCellStyle="Texto"/>
+    <tableColumn id="14" name="Completa" dataDxfId="11" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla personalizado 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="O30:P32" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="O30:P32" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="2">
-    <tableColumn id="1" name="Columna1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" name="Columna2" headerRowDxfId="9" dataDxfId="8"/>
+    <tableColumn id="1" name="Columna1" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="2" name="Columna2" headerRowDxfId="6" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TablaDeCategoríasYEmpleados" displayName="TablaDeCategoríasYEmpleados" ref="B4:C10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="Título 2" dataCellStyle="Texto">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="TablaDeCategoríasYEmpleados" displayName="TablaDeCategoríasYEmpleados" ref="B4:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Título 2" dataCellStyle="Texto">
   <autoFilter ref="B4:C10"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre de categoría" dataDxfId="4" dataCellStyle="Texto"/>
-    <tableColumn id="2" name="Nombre del empleado" dataDxfId="3" dataCellStyle="Texto"/>
+    <tableColumn id="1" name="Nombre de categoría" dataDxfId="1" dataCellStyle="Texto"/>
+    <tableColumn id="2" name="Nombre del empleado" dataDxfId="0" dataCellStyle="Texto"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla personalizado 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3910,9 +3915,9 @@
   </sheetPr>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4781,12 +4786,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L5:L17">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>(ABS((L5-G5))/G5)&gt;PorcentajeMarca</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N17">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>(ABS((N5-H5))/H5)&gt;PorcentajeMarca</formula>
     </cfRule>
   </conditionalFormatting>
